--- a/staticFiles/uploads/old_problem_db_1.xlsx
+++ b/staticFiles/uploads/old_problem_db_1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20408"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jackpot\OneDrive\桌面\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jackpot\graduate_paper\python_web\staticFiles\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4826FA8E-5838-4F62-862B-600BF579A064}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{19960DEF-440C-40C3-AEF2-15EFEB02C212}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13200"/>
   </bookViews>
@@ -46,7 +46,7 @@
     <t>遞迴</t>
   </si>
   <si>
-    <t>fibonacci</t>
+    <t>recursion</t>
   </si>
   <si>
     <t xml:space="preserve">知名的費波那契數列(Fibonacci Numbers)是指在一串數字中每一項皆為前兩項的和的數列，定義為 :
@@ -55,10 +55,6 @@
 F_n=F_(n-1)+F_(n-2)   (n≥2)
 其中F_n指的是數列中的第n項。
 由此可得一數列: 0,1,1,2,3,5,8,13,...。請寫出能計算出該數列在某項值的程式。
-範例輸入:
-5
-範例輸出:
-5
 </t>
   </si>
   <si>
@@ -72,10 +68,10 @@
 print(fib(int(input())))</t>
   </si>
   <si>
-    <t xml:space="preserve">輸入: 
-整數，單行輸入，代表該整數位於費波那契數列之第N項
-輸出:
-印出指定整數結果
+    <t xml:space="preserve">範例輸入:
+5
+範例輸出:
+5
 </t>
   </si>
   <si>

--- a/staticFiles/uploads/old_problem_db_1.xlsx
+++ b/staticFiles/uploads/old_problem_db_1.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jackpot\graduate_paper\python_web\staticFiles\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{19960DEF-440C-40C3-AEF2-15EFEB02C212}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1AB25AD-00E3-465F-A426-D3DB26D8B1E3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13200"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="old_problem_db_1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="37">
   <si>
     <t>Category</t>
   </si>
@@ -78,36 +78,6 @@
     <t>函示庫應用</t>
   </si>
   <si>
-    <t>numpy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Numpy為針對高維度資料(陣列、矩陣)運算的函式庫，請利用此函式庫按照以下流程執行並輸出運算結果:
-1. 接收一個數字N1、並利用產生出1~N1的ndarray(A1)，例如N1為5，便會得到[1 2 3 4]的ndarray。
-2. 接收一個數字N2、並利用產生出1~N2的ndarray(A2)，例如N2為5，便會得到[1 2 3 4的ndarray。
-3. 將A1轉成M×L之格式
-4. 將A2轉成L×K之格式
-5. 將A1及A2按照矩陣相乘成ndarray(A3)(dtype須為int) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">from numpy import arange
-para = list(map(int, input().split()))
-a1 = arange(1, para[0])
-a2 = arange(1, para[1])
-a1 = a1.reshape(para[2], para[3])
-a2 = a2.reshape(para[3], para[4])
-a3 = a1.dot(a2)
-print(a3)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">輸入 :
-每個輸入依空格區隔分別依序為: N1、N2、M、L、K，
-其中N1、N2與矩陣內容相關，M、L、K與矩陣形狀相關。
-輸出 :
-由兩矩陣相乘後得出的矩陣。
-</t>
-  </si>
-  <si>
     <t>分支</t>
   </si>
   <si>
@@ -126,21 +96,72 @@
 print(practice(a))</t>
   </si>
   <si>
+    <t>迴圈</t>
+  </si>
+  <si>
+    <t>for,if_else</t>
+  </si>
+  <si>
+    <t>請找出串列中連續出現三次的整數。
+其中，串列長度≥3</t>
+  </si>
+  <si>
+    <t>tkinter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">請用python設計規格如下之GUI介面
+1. 視窗長寬為250px*150px
+2. 標題(Title)為”Window” 
+3. 視窗中顯示文字”Hello!”
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">import tkinter as tk 
+class MyApp(tk.Frame):
+      def __init__(self, master=None):
+              super().__init__(master)       
+              self.master.geometry('250x150')
+              self.master.title('Window')
+              self.MyLabel = tk.Label(root, text='Hello!')
+              self.MyLabel.pack()
+root = tk.Tk()
+app = MyApp(master=root)
+app.mainloop()
+</t>
+  </si>
+  <si>
+    <t>輸出:
+輸出指定規格之GUI介面</t>
+  </si>
+  <si>
+    <t>for</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>函式應用</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">範例輸入:
 5
 範例輸出:
 100
 </t>
-  </si>
-  <si>
-    <t>迴圈</t>
-  </si>
-  <si>
-    <t>for,if_else</t>
-  </si>
-  <si>
-    <t>請找出串列中連續出現三次的整數。
-其中，串列長度≥3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>範例輸入:
+1,3,5,5,7,7,7
+範例輸出:
+[7]</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">一成績數列[60,52,40,80,79,94]，請利用函式幫忙助教計算平均成績和變異數。
+分數區間:0 ≤ 分數 ≤100
+小數點輸出至第二位
+</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>def find_consecutive(lst):
@@ -157,46 +178,58 @@
 n = list(map(int,input().split(",")))
 result = find_consecutive(n)
 print(result)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>範例輸入:
-1,3,5,5,7,7,7
+60,52,40,80,79,94
 範例輸出:
-[7]</t>
-  </si>
-  <si>
-    <t>tkinter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">請用python設計規格如下之GUI介面
-1. 視窗長寬為250px*150px
-2. 標題(Title)為”Window” 
-3. 視窗中顯示文字”Hello!”
+(67.5 340.58)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">def calculate_avg_and_variance(scores):
+    avg = sum(scores) / len(scores)
+    variance = sum((xi - avg) ** 2 for xi in scores) / len(scores)
+    return round(avg, 2), round(variance, 2)
+# Test Input
+scores = [60,52,40,80,79,94]
+print(calculate_avg_and_variance(scores))
 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">import tkinter as tk 
-class MyApp(tk.Frame):
-      def __init__(self, master=None):
-              super().__init__(master)       
-              self.master.geometry('250x150')
-              self.master.title('Window')
-              self.MyLabel = tk.Label(root, text='Hello!')
-              self.MyLabel.pack()
-root = tk.Tk()
-app = MyApp(master=root)
-app.mainloop()
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">輸入 :
+5
+輸出 :
+[1 2 3 4]
 </t>
-  </si>
-  <si>
-    <t>輸出:
-輸出指定規格之GUI介面</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">輸入N，請生成出1~N-1之陣列
+</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>函式庫應用</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>numpy</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>import numpy as np
+n = int(input())
+print(np.arange(1,n))</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1144,12 +1177,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.44140625" customWidth="1"/>
+    <col min="3" max="3" width="110.77734375" customWidth="1"/>
+    <col min="4" max="4" width="59.44140625" customWidth="1"/>
+    <col min="7" max="7" width="40.109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -1174,7 +1215,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="145.80000000000001" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1191,76 +1232,94 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="81" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="B4" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="C4" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="G4" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" ht="226.8" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="5" spans="1:7" ht="291.60000000000002" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>17</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>18</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>21</v>
+      <c r="D5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="194.4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="162" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" s="1" t="s">
+      <c r="D7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>30</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/staticFiles/uploads/old_problem_db_1.xlsx
+++ b/staticFiles/uploads/old_problem_db_1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jackpot\graduate_paper\python_web\staticFiles\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1AB25AD-00E3-465F-A426-D3DB26D8B1E3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04105903-16AE-452A-B4CD-D238F79106E4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Category</t>
   </si>
@@ -28,51 +28,7 @@
     <t>Keywords</t>
   </si>
   <si>
-    <t>Problem_Description</t>
-  </si>
-  <si>
-    <t>Solution</t>
-  </si>
-  <si>
-    <t>Hint</t>
-  </si>
-  <si>
-    <t>Prompt</t>
-  </si>
-  <si>
     <t>IAO</t>
-  </si>
-  <si>
-    <t>遞迴</t>
-  </si>
-  <si>
-    <t>recursion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">知名的費波那契數列(Fibonacci Numbers)是指在一串數字中每一項皆為前兩項的和的數列，定義為 :
-F_0=0
-F_1=1
-F_n=F_(n-1)+F_(n-2)   (n≥2)
-其中F_n指的是數列中的第n項。
-由此可得一數列: 0,1,1,2,3,5,8,13,...。請寫出能計算出該數列在某項值的程式。
-</t>
-  </si>
-  <si>
-    <t>def fib(n):
-    if n &lt; 1:
-        return 0
-    elif n == 1:
-        return 1    
-    else:
-        return fib(n - 1) + fib(n - 2)
-print(fib(int(input())))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">範例輸入:
-5
-範例輸出:
-5
-</t>
   </si>
   <si>
     <t>函示庫應用</t>
@@ -223,6 +179,59 @@
     <t>import numpy as np
 n = int(input())
 print(np.arange(1,n))</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Problem_Description</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Solution</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hint</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prompt</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>遞迴</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>recursion</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">知名的費波那契數列(Fibonacci Numbers)是指在一串數字中每一項皆為前兩項的和的數列，定義為 :
+F_0=0
+F_1=1
+F_n=F_(n-1)+F_(n-2)   (n≥2)
+其中F_n指的是數列中的第n項。
+由此可得一數列: 0,1,1,2,3,5,8,13,...。請寫出能計算出該數列在某項值的程式。
+</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>def fib(n):
+    if n &lt; 1:
+        return 0
+    elif n == 1:
+        return 1    
+    else:
+        return fib(n - 1) + fib(n - 2)
+print(fib(int(input())))</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">範例輸入:
+5
+範例輸出:
+5
+</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1181,7 +1190,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1200,121 +1209,121 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="145.80000000000001" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="81" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="291.60000000000002" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="194.4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="D6" s="1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="162" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
